--- a/HADDOCK_Results.xlsx
+++ b/HADDOCK_Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CFORD38\Documents\GitHub\SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions\subvariants\XBB.1_recombination\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\SARS-CoV-2_XBB.1.5_Spike-RBD_Predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD862270-4648-4FC9-A85B-CBCF2B8BBE6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85FD1C2-6015-466A-A232-682D6826D219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{62A41C40-034E-4CCB-9F98-C69E7335804C}"/>
   </bookViews>
@@ -21,12 +21,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="137">
   <si>
     <t>Antibody Name</t>
   </si>
@@ -311,6 +322,132 @@
   </si>
   <si>
     <t>BM_1_1_1_ref_88309_relaxed_rank_001_alphafold2_ptm_model_1_seed_000_renumbered.pdb</t>
+  </si>
+  <si>
+    <t>Job Tar File</t>
+  </si>
+  <si>
+    <t>205399-B_1_1_529__LY-CoV1404_summary.tgz</t>
+  </si>
+  <si>
+    <t>205400-B_1_1_529__AZD1061_summary.tgz</t>
+  </si>
+  <si>
+    <t>205401-B_1_1_529__AZD8895_summary.tgz</t>
+  </si>
+  <si>
+    <t>205402-B_1_1_529__58G6_summary.tgz</t>
+  </si>
+  <si>
+    <t>205403-B_1_1_529__CV38-142_summary.tgz</t>
+  </si>
+  <si>
+    <t>205404-B_1_1_529__C110_summary.tgz</t>
+  </si>
+  <si>
+    <t>206714-B_1_1_529__P5C3_summary.tgz</t>
+  </si>
+  <si>
+    <t>206715-B_1_1_529__EY6A_summary.tgz</t>
+  </si>
+  <si>
+    <t>206716-B_1_1_529__COVOX-150_summary.tgz</t>
+  </si>
+  <si>
+    <t>207271-B_1_1_529__LY-CoV555_summary.tgz</t>
+  </si>
+  <si>
+    <t>208454-BJ_1__LY-CoV1404_summary.tgz</t>
+  </si>
+  <si>
+    <t>208455-BJ_1__AZD1061_summary.tgz</t>
+  </si>
+  <si>
+    <t>208456-BJ_1__AZD8895_summary.tgz</t>
+  </si>
+  <si>
+    <t>208457-BJ_1__58G6_summary.tgz</t>
+  </si>
+  <si>
+    <t>208458-BJ_1__CV38-142_summary.tgz</t>
+  </si>
+  <si>
+    <t>208459-BJ_1__C110_summary.tgz</t>
+  </si>
+  <si>
+    <t>208460-BJ_1__P5C3_summary.tgz</t>
+  </si>
+  <si>
+    <t>208461-BJ_1__EY6A_summary.tgz</t>
+  </si>
+  <si>
+    <t>208462-BJ_1__COVOX-150_summary.tgz</t>
+  </si>
+  <si>
+    <t>208463-BJ_1__LY-CoV555_summary.tgz</t>
+  </si>
+  <si>
+    <t>208464-BM_1_1_1__LY-CoV1404_summary.tgz</t>
+  </si>
+  <si>
+    <t>208465-BM_1_1_1__AZD1061_summary.tgz</t>
+  </si>
+  <si>
+    <t>208466-BM_1_1_1__AZD8895_summary.tgz</t>
+  </si>
+  <si>
+    <t>208467-BM_1_1_1__58G6_summary.tgz</t>
+  </si>
+  <si>
+    <t>208468-BM_1_1_1__CV38-142_summary.tgz</t>
+  </si>
+  <si>
+    <t>208469-BM_1_1_1__C110_summary.tgz</t>
+  </si>
+  <si>
+    <t>208470-BM_1_1_1__P5C3_summary.tgz</t>
+  </si>
+  <si>
+    <t>208471-BM_1_1_1__EY6A_summary.tgz</t>
+  </si>
+  <si>
+    <t>208472-BM_1_1_1__COVOX-150_summary.tgz</t>
+  </si>
+  <si>
+    <t>208473-BM_1_1_1__LY-CoV555_summary.tgz</t>
+  </si>
+  <si>
+    <t>205408-XBB_1_5__LY-CoV1404_summary.tgz</t>
+  </si>
+  <si>
+    <t>205409-XBB_1_5__AZD1061_summary.tgz</t>
+  </si>
+  <si>
+    <t>205410-XBB_1_5__AZD8895_summary.tgz</t>
+  </si>
+  <si>
+    <t>205411-XBB_1_5__58G6_summary.tgz</t>
+  </si>
+  <si>
+    <t>205412-XBB_1_5__CV38-142_summary.tgz</t>
+  </si>
+  <si>
+    <t>205413-XBB_1_5__C110_summary.tgz</t>
+  </si>
+  <si>
+    <t>206727-XBB_1_5__P5C3_summary.tgz</t>
+  </si>
+  <si>
+    <t>206728-XBB_1_5__EY6A_summary.tgz</t>
+  </si>
+  <si>
+    <t>206729-XBB_1_5__COVOX-150_summary.tgz</t>
+  </si>
+  <si>
+    <t>207274-XBB_1_5__LY-CoV555_summary.tgz</t>
+  </si>
+  <si>
+    <t>PRODIGY DGprediction (Kcal/mol)</t>
   </si>
 </sst>
 </file>
@@ -876,13 +1013,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A0155A-1E79-46A6-BA76-B5BBE5928165}">
-  <dimension ref="A1:AA41"/>
+  <dimension ref="A1:AC41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
+      <selection pane="bottomRight" activeCell="AF42" sqref="AF42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,26 +1035,27 @@
     <col min="9" max="9" width="20.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="42.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="184.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="184.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -951,56 +1089,62 @@
       <c r="K1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="AC1" s="3" t="s">
+        <v>136</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
@@ -1035,56 +1179,62 @@
       <c r="K2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M2" s="1">
         <v>-124</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>60</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>2</v>
       </c>
-      <c r="P2" s="1">
-        <v>1</v>
-      </c>
       <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
         <v>-78.599999999999994</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
         <v>10.8</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T2" s="1">
         <v>-262.10000000000002</v>
       </c>
-      <c r="T2" s="1">
+      <c r="U2" s="1">
         <v>24.3</v>
       </c>
-      <c r="U2" s="1">
+      <c r="V2" s="1">
         <v>-30.5</v>
       </c>
-      <c r="V2" s="1">
+      <c r="W2" s="1">
         <v>7.1</v>
       </c>
-      <c r="W2" s="1">
+      <c r="X2" s="1">
         <v>376.1</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Y2" s="1">
         <v>104.3</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Z2" s="1">
         <v>2457.1999999999998</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AA2" s="1">
         <v>111.6</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AB2" s="1">
         <v>-1.6</v>
       </c>
+      <c r="AC2" s="1">
+        <v>-17.149999999999999</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>35</v>
       </c>
@@ -1117,56 +1267,62 @@
       <c r="K3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3" s="1">
         <v>-123.3</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>5</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>34</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>17.7</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>0.1</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>-92.8</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
         <v>6.6</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T3" s="1">
         <v>-271.7</v>
       </c>
-      <c r="T3" s="1">
+      <c r="U3" s="1">
         <v>23.7</v>
       </c>
-      <c r="U3" s="1">
+      <c r="V3" s="1">
         <v>-13.1</v>
       </c>
-      <c r="V3" s="1">
+      <c r="W3" s="1">
         <v>3.6</v>
       </c>
-      <c r="W3" s="1">
+      <c r="X3" s="1">
         <v>369.5</v>
       </c>
-      <c r="X3" s="1">
+      <c r="Y3" s="1">
         <v>87</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Z3" s="1">
         <v>2684.2</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="AA3" s="1">
         <v>88.1</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AB3" s="1">
         <v>-1.6</v>
       </c>
+      <c r="AC3" s="1">
+        <v>-15.167999999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -1199,56 +1355,62 @@
       <c r="K4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M4" s="1">
         <v>-93.5</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>4.3</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>16</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>0.3</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>-71.5</v>
       </c>
-      <c r="R4" s="1">
+      <c r="S4" s="1">
         <v>6.6</v>
       </c>
-      <c r="S4" s="1">
+      <c r="T4" s="1">
         <v>-230</v>
       </c>
-      <c r="T4" s="1">
+      <c r="U4" s="1">
         <v>29.9</v>
       </c>
-      <c r="U4" s="1">
+      <c r="V4" s="1">
         <v>-4.5</v>
       </c>
-      <c r="V4" s="1">
+      <c r="W4" s="1">
         <v>1.5</v>
       </c>
-      <c r="W4" s="1">
+      <c r="X4" s="1">
         <v>285.7</v>
       </c>
-      <c r="X4" s="1">
+      <c r="Y4" s="1">
         <v>28.6</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Z4" s="1">
         <v>2259.5</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="AA4" s="1">
         <v>49.1</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AB4" s="1">
         <v>-2</v>
       </c>
+      <c r="AC4" s="1">
+        <v>-12.601000000000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>57</v>
       </c>
@@ -1281,56 +1443,62 @@
       <c r="K5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M5" s="1">
         <v>-114.4</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>4.2</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>12</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <v>0.8</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>0.5</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <v>-71.400000000000006</v>
       </c>
-      <c r="R5" s="1">
+      <c r="S5" s="1">
         <v>2.7</v>
       </c>
-      <c r="S5" s="1">
+      <c r="T5" s="1">
         <v>-317.8</v>
       </c>
-      <c r="T5" s="1">
+      <c r="U5" s="1">
         <v>30.4</v>
       </c>
-      <c r="U5" s="1">
+      <c r="V5" s="1">
         <v>-21</v>
       </c>
-      <c r="V5" s="1">
+      <c r="W5" s="1">
         <v>2.7</v>
       </c>
-      <c r="W5" s="1">
+      <c r="X5" s="1">
         <v>416.3</v>
       </c>
-      <c r="X5" s="1">
+      <c r="Y5" s="1">
         <v>35.700000000000003</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Z5" s="1">
         <v>2305.9</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="AA5" s="1">
         <v>79.099999999999994</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AB5" s="1">
         <v>-2</v>
       </c>
+      <c r="AC5" s="1">
+        <v>-15.608000000000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>58</v>
       </c>
@@ -1363,56 +1531,62 @@
       <c r="K6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M6" s="1">
         <v>-122.3</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>8</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>23</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>1.5</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>-84.2</v>
       </c>
-      <c r="R6" s="1">
+      <c r="S6" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="S6" s="1">
+      <c r="T6" s="1">
         <v>-257.7</v>
       </c>
-      <c r="T6" s="1">
+      <c r="U6" s="1">
         <v>19.600000000000001</v>
       </c>
-      <c r="U6" s="1">
+      <c r="V6" s="1">
         <v>-3.6</v>
       </c>
-      <c r="V6" s="1">
+      <c r="W6" s="1">
         <v>2.6</v>
       </c>
-      <c r="W6" s="1">
+      <c r="X6" s="1">
         <v>170.1</v>
       </c>
-      <c r="X6" s="1">
+      <c r="Y6" s="1">
         <v>61.7</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Z6" s="1">
         <v>2451.9</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="AA6" s="1">
         <v>37.200000000000003</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AB6" s="1">
         <v>-2.2000000000000002</v>
       </c>
+      <c r="AC6" s="1">
+        <v>-15.256</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>59</v>
       </c>
@@ -1445,56 +1619,62 @@
       <c r="K7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M7" s="1">
         <v>-123.1</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>3.2</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>153</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>8.5</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <v>-67.099999999999994</v>
       </c>
-      <c r="R7" s="1">
+      <c r="S7" s="1">
         <v>3.8</v>
       </c>
-      <c r="S7" s="1">
+      <c r="T7" s="1">
         <v>-397.4</v>
       </c>
-      <c r="T7" s="1">
+      <c r="U7" s="1">
         <v>27.5</v>
       </c>
-      <c r="U7" s="1">
+      <c r="V7" s="1">
         <v>-2.7</v>
       </c>
-      <c r="V7" s="1">
+      <c r="W7" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="W7" s="1">
+      <c r="X7" s="1">
         <v>262.3</v>
       </c>
-      <c r="X7" s="1">
+      <c r="Y7" s="1">
         <v>17.399999999999999</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Z7" s="1">
         <v>2251.3000000000002</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="AA7" s="1">
         <v>63.5</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AB7" s="1">
         <v>-1.7</v>
       </c>
+      <c r="AC7" s="1">
+        <v>-11.153</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>77</v>
       </c>
@@ -1527,56 +1707,62 @@
       <c r="K8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" s="1">
         <v>-111.8</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <v>3.9</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>82</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>18</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <v>0</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <v>-81.3</v>
       </c>
-      <c r="R8" s="1">
+      <c r="S8" s="1">
         <v>7.1</v>
       </c>
-      <c r="S8" s="1">
+      <c r="T8" s="1">
         <v>-304.10000000000002</v>
       </c>
-      <c r="T8" s="1">
+      <c r="U8" s="1">
         <v>12.7</v>
       </c>
-      <c r="U8" s="1">
+      <c r="V8" s="1">
         <v>-6.5</v>
       </c>
-      <c r="V8" s="1">
+      <c r="W8" s="1">
         <v>2.5</v>
       </c>
-      <c r="W8" s="1">
+      <c r="X8" s="1">
         <v>368.9</v>
       </c>
-      <c r="X8" s="1">
+      <c r="Y8" s="1">
         <v>33</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Z8" s="1">
         <v>2458.1999999999998</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="AA8" s="1">
         <v>156.69999999999999</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AB8" s="1">
         <v>-1.3</v>
       </c>
+      <c r="AC8" s="1">
+        <v>-14.679</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>78</v>
       </c>
@@ -1609,56 +1795,62 @@
       <c r="K9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" s="1">
         <v>-158</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>2.9</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>102</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <v>0.7</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="R9" s="1">
         <v>-92.4</v>
       </c>
-      <c r="R9" s="1">
+      <c r="S9" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="S9" s="1">
+      <c r="T9" s="1">
         <v>-375.6</v>
       </c>
-      <c r="T9" s="1">
+      <c r="U9" s="1">
         <v>12</v>
       </c>
-      <c r="U9" s="1">
+      <c r="V9" s="1">
         <v>-12.2</v>
       </c>
-      <c r="V9" s="1">
+      <c r="W9" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="W9" s="1">
+      <c r="X9" s="1">
         <v>217.2</v>
       </c>
-      <c r="X9" s="1">
+      <c r="Y9" s="1">
         <v>49.1</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Z9" s="1">
         <v>2555.5</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="AA9" s="1">
         <v>54.8</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AB9" s="1">
         <v>-1.9</v>
       </c>
+      <c r="AC9" s="1">
+        <v>-15.935</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>79</v>
       </c>
@@ -1691,56 +1883,62 @@
       <c r="K10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" s="1">
         <v>-140.1</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>7.1</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>28</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <v>1.2</v>
       </c>
-      <c r="P10" s="1">
+      <c r="Q10" s="1">
         <v>0.9</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="R10" s="1">
         <v>-98.6</v>
       </c>
-      <c r="R10" s="1">
+      <c r="S10" s="1">
         <v>6.9</v>
       </c>
-      <c r="S10" s="1">
+      <c r="T10" s="1">
         <v>-198.3</v>
       </c>
-      <c r="T10" s="1">
+      <c r="U10" s="1">
         <v>26.8</v>
       </c>
-      <c r="U10" s="1">
+      <c r="V10" s="1">
         <v>-25.5</v>
       </c>
-      <c r="V10" s="1">
+      <c r="W10" s="1">
         <v>3.7</v>
       </c>
-      <c r="W10" s="1">
+      <c r="X10" s="1">
         <v>236.5</v>
       </c>
-      <c r="X10" s="1">
+      <c r="Y10" s="1">
         <v>45</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Z10" s="1">
         <v>2613.3000000000002</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="AA10" s="1">
         <v>144.5</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AB10" s="1">
         <v>-1.9</v>
       </c>
+      <c r="AC10" s="1">
+        <v>-16.562999999999999</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>90</v>
       </c>
@@ -1773,56 +1971,62 @@
       <c r="K11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" s="1">
         <v>-105.1</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <v>8.4</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>11</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P11" s="1">
         <v>4.3</v>
       </c>
-      <c r="P11" s="1">
+      <c r="Q11" s="1">
         <v>0.3</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="R11" s="1">
         <v>-87.8</v>
       </c>
-      <c r="R11" s="1">
+      <c r="S11" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="S11" s="1">
+      <c r="T11" s="1">
         <v>-237.1</v>
       </c>
-      <c r="T11" s="1">
+      <c r="U11" s="1">
         <v>14.3</v>
       </c>
-      <c r="U11" s="1">
+      <c r="V11" s="1">
         <v>-12</v>
       </c>
-      <c r="V11" s="1">
+      <c r="W11" s="1">
         <v>1.2</v>
       </c>
-      <c r="W11" s="1">
+      <c r="X11" s="1">
         <v>420.5</v>
       </c>
-      <c r="X11" s="1">
+      <c r="Y11" s="1">
         <v>61.2</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Z11" s="1">
         <v>2498.1</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="AA11" s="1">
         <v>63.6</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AB11" s="1">
         <v>-1.8</v>
       </c>
+      <c r="AC11" s="1">
+        <v>-14.7</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
@@ -1855,56 +2059,62 @@
       <c r="K12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M12" s="1">
         <v>-115.4</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N12" s="1">
         <v>1.8</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>73</v>
       </c>
-      <c r="O12" s="1">
+      <c r="P12" s="1">
         <v>21.3</v>
       </c>
-      <c r="P12" s="1">
+      <c r="Q12" s="1">
         <v>0.1</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="R12" s="1">
         <v>-63.9</v>
       </c>
-      <c r="R12" s="1">
+      <c r="S12" s="1">
         <v>4.7</v>
       </c>
-      <c r="S12" s="1">
+      <c r="T12" s="1">
         <v>-337.7</v>
       </c>
-      <c r="T12" s="1">
+      <c r="U12" s="1">
         <v>27.6</v>
       </c>
-      <c r="U12" s="1">
+      <c r="V12" s="1">
         <v>-23</v>
       </c>
-      <c r="V12" s="1">
+      <c r="W12" s="1">
         <v>6.2</v>
       </c>
-      <c r="W12" s="1">
+      <c r="X12" s="1">
         <v>390.7</v>
       </c>
-      <c r="X12" s="1">
+      <c r="Y12" s="1">
         <v>52.1</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="Z12" s="1">
         <v>2365.5</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="AA12" s="1">
         <v>71.900000000000006</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AB12" s="1">
         <v>-2.1</v>
       </c>
+      <c r="AC12" s="1">
+        <v>-13.128</v>
+      </c>
     </row>
-    <row r="13" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>35</v>
       </c>
@@ -1937,56 +2147,62 @@
       <c r="K13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M13" s="1">
         <v>-97</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <v>2.9</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>28</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P13" s="1">
         <v>10.8</v>
       </c>
-      <c r="P13" s="1">
+      <c r="Q13" s="1">
         <v>0.1</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="R13" s="1">
         <v>-69.900000000000006</v>
       </c>
-      <c r="R13" s="1">
+      <c r="S13" s="1">
         <v>6</v>
       </c>
-      <c r="S13" s="1">
+      <c r="T13" s="1">
         <v>-308.10000000000002</v>
       </c>
-      <c r="T13" s="1">
+      <c r="U13" s="1">
         <v>35.6</v>
       </c>
-      <c r="U13" s="1">
+      <c r="V13" s="1">
         <v>-10.5</v>
       </c>
-      <c r="V13" s="1">
+      <c r="W13" s="1">
         <v>2</v>
       </c>
-      <c r="W13" s="1">
+      <c r="X13" s="1">
         <v>449.7</v>
       </c>
-      <c r="X13" s="1">
+      <c r="Y13" s="1">
         <v>10</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="Z13" s="1">
         <v>2314.4</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="AA13" s="1">
         <v>79.3</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AB13" s="1">
         <v>-1.2</v>
       </c>
+      <c r="AC13" s="1">
+        <v>-12.84</v>
+      </c>
     </row>
-    <row r="14" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>36</v>
       </c>
@@ -2019,56 +2235,62 @@
       <c r="K14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M14" s="1">
         <v>-88</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="1">
         <v>6.7</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <v>12</v>
       </c>
-      <c r="O14" s="1">
+      <c r="P14" s="1">
         <v>17.100000000000001</v>
       </c>
-      <c r="P14" s="1">
+      <c r="Q14" s="1">
         <v>1.3</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="R14" s="1">
         <v>-64.3</v>
       </c>
-      <c r="R14" s="1">
+      <c r="S14" s="1">
         <v>5.5</v>
       </c>
-      <c r="S14" s="1">
+      <c r="T14" s="1">
         <v>-215.5</v>
       </c>
-      <c r="T14" s="1">
+      <c r="U14" s="1">
         <v>5.9</v>
       </c>
-      <c r="U14" s="1">
+      <c r="V14" s="1">
         <v>-8.4</v>
       </c>
-      <c r="V14" s="1">
+      <c r="W14" s="1">
         <v>5.7</v>
       </c>
-      <c r="W14" s="1">
+      <c r="X14" s="1">
         <v>278.60000000000002</v>
       </c>
-      <c r="X14" s="1">
+      <c r="Y14" s="1">
         <v>68.2</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="Z14" s="1">
         <v>2134.6</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="AA14" s="1">
         <v>116.6</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AB14" s="1">
         <v>-0.9</v>
       </c>
+      <c r="AC14" s="1">
+        <v>-10.554</v>
+      </c>
     </row>
-    <row r="15" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>57</v>
       </c>
@@ -2101,56 +2323,62 @@
       <c r="K15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M15" s="1">
         <v>-89.4</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N15" s="1">
         <v>3.6</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
         <v>9</v>
       </c>
-      <c r="O15" s="1">
+      <c r="P15" s="1">
         <v>9.6</v>
       </c>
-      <c r="P15" s="1">
+      <c r="Q15" s="1">
         <v>0.3</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="R15" s="1">
         <v>-69.3</v>
       </c>
-      <c r="R15" s="1">
+      <c r="S15" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="S15" s="1">
+      <c r="T15" s="1">
         <v>-259.39999999999998</v>
       </c>
-      <c r="T15" s="1">
+      <c r="U15" s="1">
         <v>21.4</v>
       </c>
-      <c r="U15" s="1">
+      <c r="V15" s="1">
         <v>-5.9</v>
       </c>
-      <c r="V15" s="1">
+      <c r="W15" s="1">
         <v>4.5</v>
       </c>
-      <c r="W15" s="1">
+      <c r="X15" s="1">
         <v>375.9</v>
       </c>
-      <c r="X15" s="1">
+      <c r="Y15" s="1">
         <v>7.3</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="Z15" s="1">
         <v>2304.6</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="AA15" s="1">
         <v>72.900000000000006</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AB15" s="1">
         <v>-1.7</v>
       </c>
+      <c r="AC15" s="1">
+        <v>-11.733000000000001</v>
+      </c>
     </row>
-    <row r="16" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>58</v>
       </c>
@@ -2183,56 +2411,62 @@
       <c r="K16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M16" s="1">
         <v>-113.9</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N16" s="1">
         <v>10.1</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <v>8</v>
       </c>
-      <c r="O16" s="1">
+      <c r="P16" s="1">
         <v>0.5</v>
       </c>
-      <c r="P16" s="1">
+      <c r="Q16" s="1">
         <v>0.4</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="R16" s="1">
         <v>-85.3</v>
       </c>
-      <c r="R16" s="1">
+      <c r="S16" s="1">
         <v>6.3</v>
       </c>
-      <c r="S16" s="1">
+      <c r="T16" s="1">
         <v>-228.4</v>
       </c>
-      <c r="T16" s="1">
+      <c r="U16" s="1">
         <v>19.600000000000001</v>
       </c>
-      <c r="U16" s="1">
+      <c r="V16" s="1">
         <v>-16.3</v>
       </c>
-      <c r="V16" s="1">
+      <c r="W16" s="1">
         <v>4.8</v>
       </c>
-      <c r="W16" s="1">
+      <c r="X16" s="1">
         <v>333.3</v>
       </c>
-      <c r="X16" s="1">
+      <c r="Y16" s="1">
         <v>49.4</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Z16" s="1">
         <v>2421.5</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="AA16" s="1">
         <v>79</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AB16" s="1">
         <v>-1.3</v>
       </c>
+      <c r="AC16" s="1">
+        <v>-14.109</v>
+      </c>
     </row>
-    <row r="17" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>59</v>
       </c>
@@ -2265,56 +2499,62 @@
       <c r="K17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M17" s="1">
         <v>-122.1</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="1">
         <v>8.4</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>40</v>
       </c>
-      <c r="O17" s="1">
+      <c r="P17" s="1">
         <v>0.8</v>
       </c>
-      <c r="P17" s="1">
+      <c r="Q17" s="1">
         <v>0.5</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="R17" s="1">
         <v>-73.5</v>
       </c>
-      <c r="R17" s="1">
+      <c r="S17" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="S17" s="1">
+      <c r="T17" s="1">
         <v>-314.3</v>
       </c>
-      <c r="T17" s="1">
+      <c r="U17" s="1">
         <v>34.9</v>
       </c>
-      <c r="U17" s="1">
+      <c r="V17" s="1">
         <v>-20</v>
       </c>
-      <c r="V17" s="1">
+      <c r="W17" s="1">
         <v>2.8</v>
       </c>
-      <c r="W17" s="1">
+      <c r="X17" s="1">
         <v>342.5</v>
       </c>
-      <c r="X17" s="1">
+      <c r="Y17" s="1">
         <v>63.2</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="Z17" s="1">
         <v>2139.5</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="AA17" s="1">
         <v>85.5</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="AB17" s="1">
         <v>-1.7</v>
       </c>
+      <c r="AC17" s="1">
+        <v>-14.829000000000001</v>
+      </c>
     </row>
-    <row r="18" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>77</v>
       </c>
@@ -2347,56 +2587,62 @@
       <c r="K18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M18" s="1">
         <v>-103.3</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N18" s="1">
         <v>14.2</v>
       </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1">
         <v>7</v>
       </c>
-      <c r="O18" s="1">
+      <c r="P18" s="1">
         <v>0.5</v>
       </c>
-      <c r="P18" s="1">
+      <c r="Q18" s="1">
         <v>0.4</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="R18" s="1">
         <v>-86.2</v>
       </c>
-      <c r="R18" s="1">
+      <c r="S18" s="1">
         <v>11.6</v>
       </c>
-      <c r="S18" s="1">
+      <c r="T18" s="1">
         <v>-244.1</v>
       </c>
-      <c r="T18" s="1">
+      <c r="U18" s="1">
         <v>40.700000000000003</v>
       </c>
-      <c r="U18" s="1">
+      <c r="V18" s="1">
         <v>-4.7</v>
       </c>
-      <c r="V18" s="1">
+      <c r="W18" s="1">
         <v>1.6</v>
       </c>
-      <c r="W18" s="1">
+      <c r="X18" s="1">
         <v>364.6</v>
       </c>
-      <c r="X18" s="1">
+      <c r="Y18" s="1">
         <v>58.9</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="Z18" s="1">
         <v>2659.4</v>
       </c>
-      <c r="Z18" s="1">
+      <c r="AA18" s="1">
         <v>250.9</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AB18" s="1">
         <v>-1.7</v>
       </c>
+      <c r="AC18" s="1">
+        <v>-17.884</v>
+      </c>
     </row>
-    <row r="19" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>78</v>
       </c>
@@ -2429,56 +2675,62 @@
       <c r="K19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M19" s="1">
         <v>-144.1</v>
       </c>
-      <c r="M19" s="1">
+      <c r="N19" s="1">
         <v>11.2</v>
       </c>
-      <c r="N19" s="1">
+      <c r="O19" s="1">
         <v>19</v>
       </c>
-      <c r="O19" s="1">
+      <c r="P19" s="1">
         <v>1.4</v>
       </c>
-      <c r="P19" s="1">
+      <c r="Q19" s="1">
         <v>0.8</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="R19" s="1">
         <v>-89.4</v>
       </c>
-      <c r="R19" s="1">
+      <c r="S19" s="1">
         <v>10.8</v>
       </c>
-      <c r="S19" s="1">
+      <c r="T19" s="1">
         <v>-317.60000000000002</v>
       </c>
-      <c r="T19" s="1">
+      <c r="U19" s="1">
         <v>19.399999999999999</v>
       </c>
-      <c r="U19" s="1">
+      <c r="V19" s="1">
         <v>-17.600000000000001</v>
       </c>
-      <c r="V19" s="1">
+      <c r="W19" s="1">
         <v>1.2</v>
       </c>
-      <c r="W19" s="1">
+      <c r="X19" s="1">
         <v>265.10000000000002</v>
       </c>
-      <c r="X19" s="1">
+      <c r="Y19" s="1">
         <v>81.2</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="Z19" s="1">
         <v>2562.1</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="AA19" s="1">
         <v>132.5</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AB19" s="1">
         <v>-1.7</v>
       </c>
+      <c r="AC19" s="1">
+        <v>-13.388999999999999</v>
+      </c>
     </row>
-    <row r="20" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>79</v>
       </c>
@@ -2511,56 +2763,62 @@
       <c r="K20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M20" s="1">
         <v>-118.8</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
         <v>6.1</v>
       </c>
-      <c r="N20" s="1">
+      <c r="O20" s="1">
         <v>5</v>
       </c>
-      <c r="O20" s="1">
+      <c r="P20" s="1">
         <v>1.5</v>
       </c>
-      <c r="P20" s="1">
+      <c r="Q20" s="1">
         <v>0.9</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="R20" s="1">
         <v>-77.900000000000006</v>
       </c>
-      <c r="R20" s="1">
+      <c r="S20" s="1">
         <v>2.4</v>
       </c>
-      <c r="S20" s="1">
+      <c r="T20" s="1">
         <v>-290.8</v>
       </c>
-      <c r="T20" s="1">
+      <c r="U20" s="1">
         <v>21</v>
       </c>
-      <c r="U20" s="1">
+      <c r="V20" s="1">
         <v>-18.399999999999999</v>
       </c>
-      <c r="V20" s="1">
+      <c r="W20" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="W20" s="1">
+      <c r="X20" s="1">
         <v>366</v>
       </c>
-      <c r="X20" s="1">
+      <c r="Y20" s="1">
         <v>41.2</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="Z20" s="1">
         <v>2408.8000000000002</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="AA20" s="1">
         <v>23</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="AB20" s="1">
         <v>-1.4</v>
       </c>
+      <c r="AC20" s="1">
+        <v>-16.777000000000001</v>
+      </c>
     </row>
-    <row r="21" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>90</v>
       </c>
@@ -2593,56 +2851,62 @@
       <c r="K21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M21" s="1">
         <v>-70.5</v>
       </c>
-      <c r="M21" s="1">
+      <c r="N21" s="1">
         <v>10.7</v>
       </c>
-      <c r="N21" s="1">
+      <c r="O21" s="1">
         <v>9</v>
       </c>
-      <c r="O21" s="1">
+      <c r="P21" s="1">
         <v>1.3</v>
       </c>
-      <c r="P21" s="1">
+      <c r="Q21" s="1">
         <v>0.8</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="R21" s="1">
         <v>-65.099999999999994</v>
       </c>
-      <c r="R21" s="1">
+      <c r="S21" s="1">
         <v>6.2</v>
       </c>
-      <c r="S21" s="1">
+      <c r="T21" s="1">
         <v>-184.9</v>
       </c>
-      <c r="T21" s="1">
+      <c r="U21" s="1">
         <v>39.4</v>
       </c>
-      <c r="U21" s="1">
+      <c r="V21" s="1">
         <v>-17.100000000000001</v>
       </c>
-      <c r="V21" s="1">
+      <c r="W21" s="1">
         <v>5.2</v>
       </c>
-      <c r="W21" s="1">
+      <c r="X21" s="1">
         <v>487.1</v>
       </c>
-      <c r="X21" s="1">
+      <c r="Y21" s="1">
         <v>63.6</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="Z21" s="1">
         <v>2155.5</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="AA21" s="1">
         <v>97.3</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AB21" s="1">
         <v>-2.2000000000000002</v>
       </c>
+      <c r="AC21" s="1">
+        <v>-14.164</v>
+      </c>
     </row>
-    <row r="22" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -2675,56 +2939,62 @@
       <c r="K22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M22" s="1">
         <v>-110.9</v>
       </c>
-      <c r="M22" s="1">
+      <c r="N22" s="1">
         <v>6.3</v>
       </c>
-      <c r="N22" s="1">
+      <c r="O22" s="1">
         <v>13</v>
       </c>
-      <c r="O22" s="1">
+      <c r="P22" s="1">
         <v>0.4</v>
       </c>
-      <c r="P22" s="1">
+      <c r="Q22" s="1">
         <v>0.3</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="R22" s="1">
         <v>-75.8</v>
       </c>
-      <c r="R22" s="1">
+      <c r="S22" s="1">
         <v>5.4</v>
       </c>
-      <c r="S22" s="1">
+      <c r="T22" s="1">
         <v>-290.7</v>
       </c>
-      <c r="T22" s="1">
+      <c r="U22" s="1">
         <v>16.100000000000001</v>
       </c>
-      <c r="U22" s="1">
+      <c r="V22" s="1">
         <v>-2.7</v>
       </c>
-      <c r="V22" s="1">
+      <c r="W22" s="1">
         <v>2.8</v>
       </c>
-      <c r="W22" s="1">
+      <c r="X22" s="1">
         <v>257.39999999999998</v>
       </c>
-      <c r="X22" s="1">
+      <c r="Y22" s="1">
         <v>15.1</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="Z22" s="1">
         <v>2467.1</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="AA22" s="1">
         <v>80.900000000000006</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AB22" s="1">
         <v>-1.5</v>
       </c>
+      <c r="AC22" s="1">
+        <v>-12.54</v>
+      </c>
     </row>
-    <row r="23" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>35</v>
       </c>
@@ -2757,56 +3027,62 @@
       <c r="K23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M23" s="1">
         <v>-95.4</v>
       </c>
-      <c r="M23" s="1">
+      <c r="N23" s="1">
         <v>1.6</v>
       </c>
-      <c r="N23" s="1">
+      <c r="O23" s="1">
         <v>63</v>
       </c>
-      <c r="O23" s="1">
+      <c r="P23" s="1">
         <v>4.2</v>
       </c>
-      <c r="P23" s="1">
+      <c r="Q23" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="R23" s="1">
         <v>-82.6</v>
       </c>
-      <c r="R23" s="1">
+      <c r="S23" s="1">
         <v>2</v>
       </c>
-      <c r="S23" s="1">
+      <c r="T23" s="1">
         <v>-239.8</v>
       </c>
-      <c r="T23" s="1">
+      <c r="U23" s="1">
         <v>21.4</v>
       </c>
-      <c r="U23" s="1">
+      <c r="V23" s="1">
         <v>-8.8000000000000007</v>
       </c>
-      <c r="V23" s="1">
+      <c r="W23" s="1">
         <v>1.7</v>
       </c>
-      <c r="W23" s="1">
+      <c r="X23" s="1">
         <v>439.3</v>
       </c>
-      <c r="X23" s="1">
+      <c r="Y23" s="1">
         <v>50.5</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="Z23" s="1">
         <v>2283.3000000000002</v>
       </c>
-      <c r="Z23" s="1">
+      <c r="AA23" s="1">
         <v>49.1</v>
       </c>
-      <c r="AA23" s="1">
+      <c r="AB23" s="1">
         <v>-2</v>
       </c>
+      <c r="AC23" s="1">
+        <v>-11.256</v>
+      </c>
     </row>
-    <row r="24" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
@@ -2839,56 +3115,62 @@
       <c r="K24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M24" s="1">
         <v>-84.8</v>
       </c>
-      <c r="M24" s="1">
+      <c r="N24" s="1">
         <v>3.2</v>
       </c>
-      <c r="N24" s="1">
+      <c r="O24" s="1">
         <v>41</v>
       </c>
-      <c r="O24" s="1">
+      <c r="P24" s="1">
         <v>13.2</v>
       </c>
-      <c r="P24" s="1">
+      <c r="Q24" s="1">
         <v>0.1</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="R24" s="1">
         <v>-86.7</v>
       </c>
-      <c r="R24" s="1">
+      <c r="S24" s="1">
         <v>3</v>
       </c>
-      <c r="S24" s="1">
+      <c r="T24" s="1">
         <v>-150</v>
       </c>
-      <c r="T24" s="1">
+      <c r="U24" s="1">
         <v>11.3</v>
       </c>
-      <c r="U24" s="1">
+      <c r="V24" s="1">
         <v>-8.9</v>
       </c>
-      <c r="V24" s="1">
+      <c r="W24" s="1">
         <v>1.6</v>
       </c>
-      <c r="W24" s="1">
+      <c r="X24" s="1">
         <v>407.9</v>
       </c>
-      <c r="X24" s="1">
+      <c r="Y24" s="1">
         <v>27.7</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="Z24" s="1">
         <v>2482</v>
       </c>
-      <c r="Z24" s="1">
+      <c r="AA24" s="1">
         <v>46.4</v>
       </c>
-      <c r="AA24" s="1">
+      <c r="AB24" s="1">
         <v>-1.4</v>
       </c>
+      <c r="AC24" s="1">
+        <v>-13.589</v>
+      </c>
     </row>
-    <row r="25" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>57</v>
       </c>
@@ -2921,56 +3203,62 @@
       <c r="K25" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M25" s="1">
         <v>-95.8</v>
       </c>
-      <c r="M25" s="1">
+      <c r="N25" s="1">
         <v>8.5</v>
       </c>
-      <c r="N25" s="1">
+      <c r="O25" s="1">
         <v>8</v>
       </c>
-      <c r="O25" s="1">
+      <c r="P25" s="1">
         <v>0.7</v>
       </c>
-      <c r="P25" s="1">
+      <c r="Q25" s="1">
         <v>0.4</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="R25" s="1">
         <v>-81.3</v>
       </c>
-      <c r="R25" s="1">
+      <c r="S25" s="1">
         <v>5.3</v>
       </c>
-      <c r="S25" s="1">
+      <c r="T25" s="1">
         <v>-214.9</v>
       </c>
-      <c r="T25" s="1">
+      <c r="U25" s="1">
         <v>16.100000000000001</v>
       </c>
-      <c r="U25" s="1">
+      <c r="V25" s="1">
         <v>-10</v>
       </c>
-      <c r="V25" s="1">
+      <c r="W25" s="1">
         <v>4.3</v>
       </c>
-      <c r="W25" s="1">
+      <c r="X25" s="1">
         <v>384.7</v>
       </c>
-      <c r="X25" s="1">
+      <c r="Y25" s="1">
         <v>53</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="Z25" s="1">
         <v>2418.1</v>
       </c>
-      <c r="Z25" s="1">
+      <c r="AA25" s="1">
         <v>80.599999999999994</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="AB25" s="1">
         <v>-2</v>
       </c>
+      <c r="AC25" s="1">
+        <v>-13.375</v>
+      </c>
     </row>
-    <row r="26" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>58</v>
       </c>
@@ -3003,56 +3291,62 @@
       <c r="K26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M26" s="1">
         <v>-113.1</v>
       </c>
-      <c r="M26" s="1">
+      <c r="N26" s="1">
         <v>2.7</v>
       </c>
-      <c r="N26" s="1">
+      <c r="O26" s="1">
         <v>101</v>
       </c>
-      <c r="O26" s="1">
+      <c r="P26" s="1">
         <v>0.5</v>
       </c>
-      <c r="P26" s="1">
+      <c r="Q26" s="1">
         <v>0.3</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="R26" s="1">
         <v>-88.7</v>
       </c>
-      <c r="R26" s="1">
+      <c r="S26" s="1">
         <v>3.1</v>
       </c>
-      <c r="S26" s="1">
+      <c r="T26" s="1">
         <v>-216</v>
       </c>
-      <c r="T26" s="1">
+      <c r="U26" s="1">
         <v>28.2</v>
       </c>
-      <c r="U26" s="1">
+      <c r="V26" s="1">
         <v>-4.8</v>
       </c>
-      <c r="V26" s="1">
+      <c r="W26" s="1">
         <v>1.9</v>
       </c>
-      <c r="W26" s="1">
+      <c r="X26" s="1">
         <v>236.5</v>
       </c>
-      <c r="X26" s="1">
+      <c r="Y26" s="1">
         <v>84.2</v>
       </c>
-      <c r="Y26" s="1">
+      <c r="Z26" s="1">
         <v>2363</v>
       </c>
-      <c r="Z26" s="1">
+      <c r="AA26" s="1">
         <v>57.3</v>
       </c>
-      <c r="AA26" s="1">
+      <c r="AB26" s="1">
         <v>-1.3</v>
       </c>
+      <c r="AC26" s="1">
+        <v>-14.645</v>
+      </c>
     </row>
-    <row r="27" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>59</v>
       </c>
@@ -3085,56 +3379,62 @@
       <c r="K27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M27" s="1">
         <v>-113.9</v>
       </c>
-      <c r="M27" s="1">
+      <c r="N27" s="1">
         <v>2.1</v>
       </c>
-      <c r="N27" s="1">
+      <c r="O27" s="1">
         <v>40</v>
       </c>
-      <c r="O27" s="1">
+      <c r="P27" s="1">
         <v>15.8</v>
       </c>
-      <c r="P27" s="1">
+      <c r="Q27" s="1">
         <v>0.6</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="R27" s="1">
         <v>-74.3</v>
       </c>
-      <c r="R27" s="1">
+      <c r="S27" s="1">
         <v>10</v>
       </c>
-      <c r="S27" s="1">
+      <c r="T27" s="1">
         <v>-289.89999999999998</v>
       </c>
-      <c r="T27" s="1">
+      <c r="U27" s="1">
         <v>44.4</v>
       </c>
-      <c r="U27" s="1">
+      <c r="V27" s="1">
         <v>-16.8</v>
       </c>
-      <c r="V27" s="1">
+      <c r="W27" s="1">
         <v>5.4</v>
       </c>
-      <c r="W27" s="1">
+      <c r="X27" s="1">
         <v>351.9</v>
       </c>
-      <c r="X27" s="1">
+      <c r="Y27" s="1">
         <v>89.6</v>
       </c>
-      <c r="Y27" s="1">
+      <c r="Z27" s="1">
         <v>2122.1999999999998</v>
       </c>
-      <c r="Z27" s="1">
+      <c r="AA27" s="1">
         <v>103.9</v>
       </c>
-      <c r="AA27" s="1">
+      <c r="AB27" s="1">
         <v>-0.8</v>
       </c>
+      <c r="AC27" s="1">
+        <v>-12.05</v>
+      </c>
     </row>
-    <row r="28" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>77</v>
       </c>
@@ -3167,56 +3467,62 @@
       <c r="K28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M28" s="1">
         <v>-110.5</v>
       </c>
-      <c r="M28" s="1">
+      <c r="N28" s="1">
         <v>0.9</v>
       </c>
-      <c r="N28" s="1">
+      <c r="O28" s="1">
         <v>99</v>
       </c>
-      <c r="O28" s="1">
+      <c r="P28" s="1">
         <v>18.3</v>
       </c>
-      <c r="P28" s="1">
+      <c r="Q28" s="1">
         <v>0.1</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="R28" s="1">
         <v>-83.1</v>
       </c>
-      <c r="R28" s="1">
+      <c r="S28" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="S28" s="1">
+      <c r="T28" s="1">
         <v>-326.8</v>
       </c>
-      <c r="T28" s="1">
+      <c r="U28" s="1">
         <v>7.8</v>
       </c>
-      <c r="U28" s="1">
+      <c r="V28" s="1">
         <v>-9.1</v>
       </c>
-      <c r="V28" s="1">
+      <c r="W28" s="1">
         <v>2.8</v>
       </c>
-      <c r="W28" s="1">
+      <c r="X28" s="1">
         <v>470.5</v>
       </c>
-      <c r="X28" s="1">
+      <c r="Y28" s="1">
         <v>26</v>
       </c>
-      <c r="Y28" s="1">
+      <c r="Z28" s="1">
         <v>2561.4</v>
       </c>
-      <c r="Z28" s="1">
+      <c r="AA28" s="1">
         <v>98.3</v>
       </c>
-      <c r="AA28" s="1">
+      <c r="AB28" s="1">
         <v>-1.1000000000000001</v>
       </c>
+      <c r="AC28" s="1">
+        <v>-15.151999999999999</v>
+      </c>
     </row>
-    <row r="29" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>78</v>
       </c>
@@ -3249,56 +3555,62 @@
       <c r="K29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M29" s="1">
         <v>-136.5</v>
       </c>
-      <c r="M29" s="1">
+      <c r="N29" s="1">
         <v>4.7</v>
       </c>
-      <c r="N29" s="1">
+      <c r="O29" s="1">
         <v>49</v>
       </c>
-      <c r="O29" s="1">
+      <c r="P29" s="1">
         <v>1.2</v>
       </c>
-      <c r="P29" s="1">
+      <c r="Q29" s="1">
         <v>1.7</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="R29" s="1">
         <v>-98.1</v>
       </c>
-      <c r="R29" s="1">
+      <c r="S29" s="1">
         <v>5.8</v>
       </c>
-      <c r="S29" s="1">
+      <c r="T29" s="1">
         <v>302.10000000000002</v>
       </c>
-      <c r="T29" s="1">
+      <c r="U29" s="1">
         <v>46.4</v>
       </c>
-      <c r="U29" s="1">
+      <c r="V29" s="1">
         <v>-9.1999999999999993</v>
       </c>
-      <c r="V29" s="1">
+      <c r="W29" s="1">
         <v>1.6</v>
       </c>
-      <c r="W29" s="1">
+      <c r="X29" s="1">
         <v>313</v>
       </c>
-      <c r="X29" s="1">
+      <c r="Y29" s="1">
         <v>14.6</v>
       </c>
-      <c r="Y29" s="1">
+      <c r="Z29" s="1">
         <v>2775</v>
       </c>
-      <c r="Z29" s="1">
+      <c r="AA29" s="1">
         <v>99.4</v>
       </c>
-      <c r="AA29" s="1">
+      <c r="AB29" s="1">
         <v>-1.8</v>
       </c>
+      <c r="AC29" s="1">
+        <v>-15.964</v>
+      </c>
     </row>
-    <row r="30" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>79</v>
       </c>
@@ -3331,56 +3643,62 @@
       <c r="K30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M30" s="1">
         <v>-129.80000000000001</v>
       </c>
-      <c r="M30" s="1">
+      <c r="N30" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="N30" s="1">
+      <c r="O30" s="1">
         <v>67</v>
       </c>
-      <c r="O30" s="1">
+      <c r="P30" s="1">
         <v>1.5</v>
       </c>
-      <c r="P30" s="1">
+      <c r="Q30" s="1">
         <v>1.2</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="R30" s="1">
         <v>-96</v>
       </c>
-      <c r="R30" s="1">
+      <c r="S30" s="1">
         <v>4.2</v>
       </c>
-      <c r="S30" s="1">
+      <c r="T30" s="1">
         <v>-236.1</v>
       </c>
-      <c r="T30" s="1">
+      <c r="U30" s="1">
         <v>27</v>
       </c>
-      <c r="U30" s="1">
+      <c r="V30" s="1">
         <v>-18.8</v>
       </c>
-      <c r="V30" s="1">
+      <c r="W30" s="1">
         <v>3.5</v>
       </c>
-      <c r="W30" s="1">
+      <c r="X30" s="1">
         <v>322.10000000000002</v>
       </c>
-      <c r="X30" s="1">
+      <c r="Y30" s="1">
         <v>45.1</v>
       </c>
-      <c r="Y30" s="1">
+      <c r="Z30" s="1">
         <v>2496.4</v>
       </c>
-      <c r="Z30" s="1">
+      <c r="AA30" s="1">
         <v>37.299999999999997</v>
       </c>
-      <c r="AA30" s="1">
+      <c r="AB30" s="1">
         <v>-1.7</v>
       </c>
+      <c r="AC30" s="1">
+        <v>-17.079000000000001</v>
+      </c>
     </row>
-    <row r="31" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>90</v>
       </c>
@@ -3413,56 +3731,62 @@
       <c r="K31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M31" s="1">
         <v>-105.3</v>
       </c>
-      <c r="M31" s="1">
+      <c r="N31" s="1">
         <v>3.1</v>
       </c>
-      <c r="N31" s="1">
+      <c r="O31" s="1">
         <v>42</v>
       </c>
-      <c r="O31" s="1">
+      <c r="P31" s="1">
         <v>0.7</v>
       </c>
-      <c r="P31" s="1">
+      <c r="Q31" s="1">
         <v>0.5</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="R31" s="1">
         <v>-95.3</v>
       </c>
-      <c r="R31" s="1">
+      <c r="S31" s="1">
         <v>6.1</v>
       </c>
-      <c r="S31" s="1">
+      <c r="T31" s="1">
         <v>-148.69999999999999</v>
       </c>
-      <c r="T31" s="1">
+      <c r="U31" s="1">
         <v>14.1</v>
       </c>
-      <c r="U31" s="1">
+      <c r="V31" s="1">
         <v>-18.7</v>
       </c>
-      <c r="V31" s="1">
+      <c r="W31" s="1">
         <v>3.6</v>
       </c>
-      <c r="W31" s="1">
+      <c r="X31" s="1">
         <v>385.2</v>
       </c>
-      <c r="X31" s="1">
+      <c r="Y31" s="1">
         <v>33.6</v>
       </c>
-      <c r="Y31" s="1">
+      <c r="Z31" s="1">
         <v>2462.9</v>
       </c>
-      <c r="Z31" s="1">
+      <c r="AA31" s="1">
         <v>68</v>
       </c>
-      <c r="AA31" s="1">
+      <c r="AB31" s="1">
         <v>-1.9</v>
       </c>
+      <c r="AC31" s="1">
+        <v>-16.236999999999998</v>
+      </c>
     </row>
-    <row r="32" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>34</v>
       </c>
@@ -3495,56 +3819,62 @@
       <c r="K32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M32" s="1">
         <v>-109.1</v>
       </c>
-      <c r="M32" s="1">
+      <c r="N32" s="1">
         <v>8.5</v>
       </c>
-      <c r="N32" s="1">
+      <c r="O32" s="1">
         <v>16</v>
       </c>
-      <c r="O32" s="1">
+      <c r="P32" s="1">
         <v>0.4</v>
       </c>
-      <c r="P32" s="1">
+      <c r="Q32" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="R32" s="1">
         <v>-74</v>
       </c>
-      <c r="R32" s="1">
+      <c r="S32" s="1">
         <v>3</v>
       </c>
-      <c r="S32" s="1">
+      <c r="T32" s="1">
         <v>-291.8</v>
       </c>
-      <c r="T32" s="1">
+      <c r="U32" s="1">
         <v>17.3</v>
       </c>
-      <c r="U32" s="1">
+      <c r="V32" s="1">
         <v>-4.5</v>
       </c>
-      <c r="V32" s="1">
+      <c r="W32" s="1">
         <v>3.5</v>
       </c>
-      <c r="W32" s="1">
+      <c r="X32" s="1">
         <v>276.89999999999998</v>
       </c>
-      <c r="X32" s="1">
+      <c r="Y32" s="1">
         <v>49</v>
       </c>
-      <c r="Y32" s="1">
+      <c r="Z32" s="1">
         <v>2454.9</v>
       </c>
-      <c r="Z32" s="1">
+      <c r="AA32" s="1">
         <v>65.099999999999994</v>
       </c>
-      <c r="AA32" s="1">
+      <c r="AB32" s="1">
         <v>-1.4</v>
       </c>
+      <c r="AC32" s="1">
+        <v>-12.701000000000001</v>
+      </c>
     </row>
-    <row r="33" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>35</v>
       </c>
@@ -3577,56 +3907,62 @@
       <c r="K33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M33" s="1">
         <v>-100.2</v>
       </c>
-      <c r="M33" s="1">
+      <c r="N33" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="N33" s="1">
+      <c r="O33" s="1">
         <v>39</v>
       </c>
-      <c r="O33" s="1">
+      <c r="P33" s="1">
         <v>0.5</v>
       </c>
-      <c r="P33" s="1">
+      <c r="Q33" s="1">
         <v>0.4</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="R33" s="1">
         <v>-83.5</v>
       </c>
-      <c r="R33" s="1">
+      <c r="S33" s="1">
         <v>8.1</v>
       </c>
-      <c r="S33" s="1">
+      <c r="T33" s="1">
         <v>-300.60000000000002</v>
       </c>
-      <c r="T33" s="1">
+      <c r="U33" s="1">
         <v>36.4</v>
       </c>
-      <c r="U33" s="1">
+      <c r="V33" s="1">
         <v>-0.7</v>
       </c>
-      <c r="V33" s="1">
+      <c r="W33" s="1">
         <v>3.4</v>
       </c>
-      <c r="W33" s="1">
+      <c r="X33" s="1">
         <v>441.6</v>
       </c>
-      <c r="X33" s="1">
+      <c r="Y33" s="1">
         <v>43.2</v>
       </c>
-      <c r="Y33" s="1">
+      <c r="Z33" s="1">
         <v>2495.8000000000002</v>
       </c>
-      <c r="Z33" s="1">
+      <c r="AA33" s="1">
         <v>61</v>
       </c>
-      <c r="AA33" s="1">
+      <c r="AB33" s="1">
         <v>-1.8</v>
       </c>
+      <c r="AC33" s="1">
+        <v>-15.204000000000001</v>
+      </c>
     </row>
-    <row r="34" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>36</v>
       </c>
@@ -3659,56 +3995,62 @@
       <c r="K34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L34" s="1">
+      <c r="L34" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M34" s="1">
         <v>-123.8</v>
       </c>
-      <c r="M34" s="1">
+      <c r="N34" s="1">
         <v>6.9</v>
       </c>
-      <c r="N34" s="1">
+      <c r="O34" s="1">
         <v>94</v>
       </c>
-      <c r="O34" s="1">
+      <c r="P34" s="1">
         <v>0.3</v>
       </c>
-      <c r="P34" s="1">
+      <c r="Q34" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="R34" s="1">
         <v>-90.7</v>
       </c>
-      <c r="R34" s="1">
+      <c r="S34" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="S34" s="1">
+      <c r="T34" s="1">
         <v>-256.3</v>
       </c>
-      <c r="T34" s="1">
+      <c r="U34" s="1">
         <v>22.6</v>
       </c>
-      <c r="U34" s="1">
+      <c r="V34" s="1">
         <v>-5.5</v>
       </c>
-      <c r="V34" s="1">
+      <c r="W34" s="1">
         <v>2.8</v>
       </c>
-      <c r="W34" s="1">
+      <c r="X34" s="1">
         <v>237</v>
       </c>
-      <c r="X34" s="1">
+      <c r="Y34" s="1">
         <v>89.8</v>
       </c>
-      <c r="Y34" s="1">
+      <c r="Z34" s="1">
         <v>2470.8000000000002</v>
       </c>
-      <c r="Z34" s="1">
+      <c r="AA34" s="1">
         <v>53.5</v>
       </c>
-      <c r="AA34" s="1">
+      <c r="AB34" s="1">
         <v>-2.2999999999999998</v>
       </c>
+      <c r="AC34" s="1">
+        <v>-13.738</v>
+      </c>
     </row>
-    <row r="35" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>57</v>
       </c>
@@ -3741,56 +4083,62 @@
       <c r="K35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L35" s="1">
+      <c r="L35" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M35" s="1">
         <v>-98</v>
       </c>
-      <c r="M35" s="1">
+      <c r="N35" s="1">
         <v>2.7</v>
       </c>
-      <c r="N35" s="1">
+      <c r="O35" s="1">
         <v>27</v>
       </c>
-      <c r="O35" s="1">
-        <v>1</v>
-      </c>
       <c r="P35" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="1">
         <v>0.6</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="R35" s="1">
         <v>-84.5</v>
       </c>
-      <c r="R35" s="1">
+      <c r="S35" s="1">
         <v>3.1</v>
       </c>
-      <c r="S35" s="1">
+      <c r="T35" s="1">
         <v>-197.2</v>
       </c>
-      <c r="T35" s="1">
+      <c r="U35" s="1">
         <v>12.3</v>
       </c>
-      <c r="U35" s="1">
+      <c r="V35" s="1">
         <v>-6.2</v>
       </c>
-      <c r="V35" s="1">
+      <c r="W35" s="1">
         <v>2.6</v>
       </c>
-      <c r="W35" s="1">
+      <c r="X35" s="1">
         <v>321.39999999999998</v>
       </c>
-      <c r="X35" s="1">
+      <c r="Y35" s="1">
         <v>24.6</v>
       </c>
-      <c r="Y35" s="1">
+      <c r="Z35" s="1">
         <v>2400</v>
       </c>
-      <c r="Z35" s="1">
+      <c r="AA35" s="1">
         <v>67.7</v>
       </c>
-      <c r="AA35" s="1">
+      <c r="AB35" s="1">
         <v>-2.6</v>
       </c>
+      <c r="AC35" s="1">
+        <v>-13.66</v>
+      </c>
     </row>
-    <row r="36" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>58</v>
       </c>
@@ -3823,56 +4171,62 @@
       <c r="K36" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L36" s="1">
+      <c r="L36" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M36" s="1">
         <v>-106</v>
       </c>
-      <c r="M36" s="1">
+      <c r="N36" s="1">
         <v>4.3</v>
       </c>
-      <c r="N36" s="1">
+      <c r="O36" s="1">
         <v>22</v>
       </c>
-      <c r="O36" s="1">
+      <c r="P36" s="1">
         <v>1.7</v>
       </c>
-      <c r="P36" s="1">
+      <c r="Q36" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="R36" s="1">
         <v>-79.3</v>
       </c>
-      <c r="R36" s="1">
+      <c r="S36" s="1">
         <v>5.3</v>
       </c>
-      <c r="S36" s="1">
+      <c r="T36" s="1">
         <v>-225.4</v>
       </c>
-      <c r="T36" s="1">
+      <c r="U36" s="1">
         <v>47.3</v>
       </c>
-      <c r="U36" s="1">
+      <c r="V36" s="1">
         <v>-6.3</v>
       </c>
-      <c r="V36" s="1">
+      <c r="W36" s="1">
         <v>3.3</v>
       </c>
-      <c r="W36" s="1">
+      <c r="X36" s="1">
         <v>247.8</v>
       </c>
-      <c r="X36" s="1">
+      <c r="Y36" s="1">
         <v>32.200000000000003</v>
       </c>
-      <c r="Y36" s="1">
+      <c r="Z36" s="1">
         <v>2260.6999999999998</v>
       </c>
-      <c r="Z36" s="1">
+      <c r="AA36" s="1">
         <v>48.5</v>
       </c>
-      <c r="AA36" s="1">
+      <c r="AB36" s="1">
         <v>-1.5</v>
       </c>
+      <c r="AC36" s="1">
+        <v>-12.997</v>
+      </c>
     </row>
-    <row r="37" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>59</v>
       </c>
@@ -3905,56 +4259,62 @@
       <c r="K37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L37" s="1">
+      <c r="L37" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M37" s="1">
         <v>-123.6</v>
       </c>
-      <c r="M37" s="1">
+      <c r="N37" s="1">
         <v>0.4</v>
       </c>
-      <c r="N37" s="1">
+      <c r="O37" s="1">
         <v>142</v>
       </c>
-      <c r="O37" s="1">
+      <c r="P37" s="1">
         <v>0.5</v>
       </c>
-      <c r="P37" s="1">
+      <c r="Q37" s="1">
         <v>0.3</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="R37" s="1">
         <v>-84.3</v>
       </c>
-      <c r="R37" s="1">
+      <c r="S37" s="1">
         <v>3.9</v>
       </c>
-      <c r="S37" s="1">
+      <c r="T37" s="1">
         <v>-255.4</v>
       </c>
-      <c r="T37" s="1">
+      <c r="U37" s="1">
         <v>31.2</v>
       </c>
-      <c r="U37" s="1">
+      <c r="V37" s="1">
         <v>-12.1</v>
       </c>
-      <c r="V37" s="1">
+      <c r="W37" s="1">
         <v>2.4</v>
       </c>
-      <c r="W37" s="1">
+      <c r="X37" s="1">
         <v>238.1</v>
       </c>
-      <c r="X37" s="1">
+      <c r="Y37" s="1">
         <v>29.1</v>
       </c>
-      <c r="Y37" s="1">
+      <c r="Z37" s="1">
         <v>2213.5</v>
       </c>
-      <c r="Z37" s="1">
+      <c r="AA37" s="1">
         <v>43.2</v>
       </c>
-      <c r="AA37" s="1">
+      <c r="AB37" s="1">
         <v>-0.8</v>
       </c>
+      <c r="AC37" s="1">
+        <v>-13.786</v>
+      </c>
     </row>
-    <row r="38" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>77</v>
       </c>
@@ -3987,56 +4347,62 @@
       <c r="K38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L38" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M38" s="1">
         <v>-95.7</v>
       </c>
-      <c r="M38" s="1">
+      <c r="N38" s="1">
         <v>3.4</v>
       </c>
-      <c r="N38" s="1">
+      <c r="O38" s="1">
         <v>40</v>
       </c>
-      <c r="O38" s="1">
+      <c r="P38" s="1">
         <v>1.3</v>
       </c>
-      <c r="P38" s="1">
+      <c r="Q38" s="1">
         <v>1.2</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="R38" s="1">
         <v>-89.6</v>
       </c>
-      <c r="R38" s="1">
+      <c r="S38" s="1">
         <v>2.9</v>
       </c>
-      <c r="S38" s="1">
+      <c r="T38" s="1">
         <v>-200.2</v>
       </c>
-      <c r="T38" s="1">
+      <c r="U38" s="1">
         <v>19.399999999999999</v>
       </c>
-      <c r="U38" s="1">
+      <c r="V38" s="1">
         <v>-13.5</v>
       </c>
-      <c r="V38" s="1">
+      <c r="W38" s="1">
         <v>6</v>
       </c>
-      <c r="W38" s="1">
+      <c r="X38" s="1">
         <v>474.2</v>
       </c>
-      <c r="X38" s="1">
+      <c r="Y38" s="1">
         <v>74.2</v>
       </c>
-      <c r="Y38" s="1">
+      <c r="Z38" s="1">
         <v>2401.9</v>
       </c>
-      <c r="Z38" s="1">
+      <c r="AA38" s="1">
         <v>37.4</v>
       </c>
-      <c r="AA38" s="1">
+      <c r="AB38" s="1">
         <v>-1.2</v>
       </c>
+      <c r="AC38" s="1">
+        <v>-15.462999999999999</v>
+      </c>
     </row>
-    <row r="39" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>78</v>
       </c>
@@ -4069,56 +4435,62 @@
       <c r="K39" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L39" s="1">
+      <c r="L39" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M39" s="1">
         <v>-170.5</v>
       </c>
-      <c r="M39" s="1">
+      <c r="N39" s="1">
         <v>9.3000000000000007</v>
       </c>
-      <c r="N39" s="1">
+      <c r="O39" s="1">
         <v>91</v>
       </c>
-      <c r="O39" s="1">
+      <c r="P39" s="1">
         <v>0.4</v>
       </c>
-      <c r="P39" s="1">
+      <c r="Q39" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q39" s="1">
+      <c r="R39" s="1">
         <v>-111.1</v>
       </c>
-      <c r="R39" s="1">
+      <c r="S39" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="S39" s="1">
+      <c r="T39" s="1">
         <v>-353.6</v>
       </c>
-      <c r="T39" s="1">
+      <c r="U39" s="1">
         <v>18</v>
       </c>
-      <c r="U39" s="1">
+      <c r="V39" s="1">
         <v>-14.4</v>
       </c>
-      <c r="V39" s="1">
+      <c r="W39" s="1">
         <v>2.8</v>
       </c>
-      <c r="W39" s="1">
+      <c r="X39" s="1">
         <v>258.3</v>
       </c>
-      <c r="X39" s="1">
+      <c r="Y39" s="1">
         <v>30.2</v>
       </c>
-      <c r="Y39" s="1">
+      <c r="Z39" s="1">
         <v>2862.4</v>
       </c>
-      <c r="Z39" s="1">
+      <c r="AA39" s="1">
         <v>69.099999999999994</v>
       </c>
-      <c r="AA39" s="1">
+      <c r="AB39" s="1">
         <v>-2.5</v>
       </c>
+      <c r="AC39" s="1">
+        <v>-16.991</v>
+      </c>
     </row>
-    <row r="40" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
         <v>79</v>
       </c>
@@ -4151,56 +4523,62 @@
       <c r="K40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L40" s="1">
+      <c r="L40" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M40" s="1">
         <v>-119.2</v>
       </c>
-      <c r="M40" s="1">
+      <c r="N40" s="1">
         <v>6</v>
       </c>
-      <c r="N40" s="1">
+      <c r="O40" s="1">
         <v>111</v>
       </c>
-      <c r="O40" s="1">
+      <c r="P40" s="1">
         <v>0.5</v>
       </c>
-      <c r="P40" s="1">
+      <c r="Q40" s="1">
         <v>0.4</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="R40" s="1">
         <v>-82</v>
       </c>
-      <c r="R40" s="1">
+      <c r="S40" s="1">
         <v>2.9</v>
       </c>
-      <c r="S40" s="1">
+      <c r="T40" s="1">
         <v>-214.8</v>
       </c>
-      <c r="T40" s="1">
+      <c r="U40" s="1">
         <v>32.6</v>
       </c>
-      <c r="U40" s="1">
+      <c r="V40" s="1">
         <v>-22.8</v>
       </c>
-      <c r="V40" s="1">
+      <c r="W40" s="1">
         <v>2.1</v>
       </c>
-      <c r="W40" s="1">
+      <c r="X40" s="1">
         <v>285.7</v>
       </c>
-      <c r="X40" s="1">
+      <c r="Y40" s="1">
         <v>48.3</v>
       </c>
-      <c r="Y40" s="1">
+      <c r="Z40" s="1">
         <v>2319</v>
       </c>
-      <c r="Z40" s="1">
+      <c r="AA40" s="1">
         <v>79.3</v>
       </c>
-      <c r="AA40" s="1">
+      <c r="AB40" s="1">
         <v>-1.4</v>
       </c>
+      <c r="AC40" s="1">
+        <v>-13.624000000000001</v>
+      </c>
     </row>
-    <row r="41" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>90</v>
       </c>
@@ -4233,53 +4611,59 @@
       <c r="K41" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L41" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M41" s="1">
         <v>-93.4</v>
       </c>
-      <c r="M41" s="1">
+      <c r="N41" s="1">
         <v>8.6999999999999993</v>
       </c>
-      <c r="N41" s="1">
+      <c r="O41" s="1">
         <v>19</v>
       </c>
-      <c r="O41" s="1">
+      <c r="P41" s="1">
         <v>0.5</v>
       </c>
-      <c r="P41" s="1">
+      <c r="Q41" s="1">
         <v>0.4</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="R41" s="1">
         <v>-87.3</v>
       </c>
-      <c r="R41" s="1">
+      <c r="S41" s="1">
         <v>2.6</v>
       </c>
-      <c r="S41" s="1">
+      <c r="T41" s="1">
         <v>-168.2</v>
       </c>
-      <c r="T41" s="1">
+      <c r="U41" s="1">
         <v>18.7</v>
       </c>
-      <c r="U41" s="1">
+      <c r="V41" s="1">
         <v>-13</v>
       </c>
-      <c r="V41" s="1">
+      <c r="W41" s="1">
         <v>3</v>
       </c>
-      <c r="W41" s="1">
+      <c r="X41" s="1">
         <v>405.1</v>
       </c>
-      <c r="X41" s="1">
+      <c r="Y41" s="1">
         <v>53.6</v>
       </c>
-      <c r="Y41" s="1">
+      <c r="Z41" s="1">
         <v>2386</v>
       </c>
-      <c r="Z41" s="1">
+      <c r="AA41" s="1">
         <v>52.3</v>
       </c>
-      <c r="AA41" s="1">
+      <c r="AB41" s="1">
         <v>-1.4</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>-15.022</v>
       </c>
     </row>
   </sheetData>

--- a/HADDOCK_Results.xlsx
+++ b/HADDOCK_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\SARS-CoV-2_XBB.1.5_Spike-RBD_Predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85FD1C2-6015-466A-A232-682D6826D219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE0FACD-6607-487F-9068-8A8A4A43A9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{62A41C40-034E-4CCB-9F98-C69E7335804C}"/>
+    <workbookView xWindow="40740" yWindow="2340" windowWidth="28800" windowHeight="15435" xr2:uid="{62A41C40-034E-4CCB-9F98-C69E7335804C}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -1016,10 +1016,10 @@
   <dimension ref="A1:AC41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF42" sqref="AF42"/>
+      <selection pane="bottomRight" activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HADDOCK_Results.xlsx
+++ b/HADDOCK_Results.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\SARS-CoV-2_XBB.1.5_Spike-RBD_Predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE0FACD-6607-487F-9068-8A8A4A43A9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FAB998-24C1-4D74-88BE-1F7292425983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40740" yWindow="2340" windowWidth="28800" windowHeight="15435" xr2:uid="{62A41C40-034E-4CCB-9F98-C69E7335804C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{62A41C40-034E-4CCB-9F98-C69E7335804C}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
     <sheet name="Old" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Results!$A$1:$AG$41</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="141">
   <si>
     <t>Antibody Name</t>
   </si>
@@ -448,6 +451,18 @@
   </si>
   <si>
     <t>PRODIGY DGprediction (Kcal/mol)</t>
+  </si>
+  <si>
+    <t>Avg PRODIGY DGprediction (Kcal/mol)</t>
+  </si>
+  <si>
+    <t>Min PRODIGY DGprediction (Kcal/mol)</t>
+  </si>
+  <si>
+    <t>Max PRODIGY DGprediction (Kcal/mol)</t>
+  </si>
+  <si>
+    <t>SD PRODIGY DGprediction (Kcal/mol)</t>
   </si>
 </sst>
 </file>
@@ -586,7 +601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -682,9 +697,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1013,13 +1025,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A0155A-1E79-46A6-BA76-B5BBE5928165}">
-  <dimension ref="A1:AC41"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC1" sqref="AC1"/>
+      <selection pane="bottomRight" activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,10 +1064,15 @@
     <col min="26" max="26" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="29" max="29" width="24.85546875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="184.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="184.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1143,8 +1160,20 @@
       <c r="AC1" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="AD1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>140</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
@@ -1170,7 +1199,7 @@
       <c r="H2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="34" t="s">
         <v>37</v>
       </c>
       <c r="J2" s="1" t="b">
@@ -1233,8 +1262,20 @@
       <c r="AC2" s="1">
         <v>-17.149999999999999</v>
       </c>
+      <c r="AD2" s="1">
+        <v>-16.474499999999999</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>-17.149999999999999</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>-15.356</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>0.77769852770856418</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>35</v>
       </c>
@@ -1260,7 +1301,7 @@
       <c r="H3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="35"/>
+      <c r="I3" s="34"/>
       <c r="J3" s="1" t="b">
         <v>1</v>
       </c>
@@ -1321,8 +1362,20 @@
       <c r="AC3" s="1">
         <v>-15.167999999999999</v>
       </c>
+      <c r="AD3" s="1">
+        <v>-15.44725</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>-15.693</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>-15.167999999999999</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>0.24104823168811332</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -1348,7 +1401,7 @@
       <c r="H4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="35"/>
+      <c r="I4" s="34"/>
       <c r="J4" s="1" t="b">
         <v>1</v>
       </c>
@@ -1409,8 +1462,20 @@
       <c r="AC4" s="1">
         <v>-12.601000000000001</v>
       </c>
+      <c r="AD4" s="1">
+        <v>-12.549250000000001</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>-12.7</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>-12.242000000000001</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>0.20878916798202335</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>57</v>
       </c>
@@ -1436,7 +1501,7 @@
       <c r="H5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="35"/>
+      <c r="I5" s="34"/>
       <c r="J5" s="1" t="b">
         <v>1</v>
       </c>
@@ -1497,8 +1562,20 @@
       <c r="AC5" s="1">
         <v>-15.608000000000001</v>
       </c>
+      <c r="AD5" s="1">
+        <v>-14.526</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>-15.608000000000001</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>-14.118</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>0.72242139134073446</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>58</v>
       </c>
@@ -1524,7 +1601,7 @@
       <c r="H6" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="35"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="1" t="b">
         <v>1</v>
       </c>
@@ -1585,8 +1662,20 @@
       <c r="AC6" s="1">
         <v>-15.256</v>
       </c>
+      <c r="AD6" s="1">
+        <v>-14.395250000000001</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>-15.256</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>-13.887</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>0.59597783795481796</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>59</v>
       </c>
@@ -1612,7 +1701,7 @@
       <c r="H7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="35"/>
+      <c r="I7" s="34"/>
       <c r="J7" s="1" t="b">
         <v>1</v>
       </c>
@@ -1673,8 +1762,20 @@
       <c r="AC7" s="1">
         <v>-11.153</v>
       </c>
+      <c r="AD7" s="1">
+        <v>-11.758000000000001</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>-12.302</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>-11.153</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>0.47150185577571713</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>77</v>
       </c>
@@ -1700,7 +1801,7 @@
       <c r="H8" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I8" s="35"/>
+      <c r="I8" s="34"/>
       <c r="J8" s="1" t="b">
         <v>1</v>
       </c>
@@ -1761,8 +1862,20 @@
       <c r="AC8" s="1">
         <v>-14.679</v>
       </c>
+      <c r="AD8" s="1">
+        <v>-13.849500000000001</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>-14.679</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>-12.904999999999999</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>0.72729200921403669</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>78</v>
       </c>
@@ -1788,7 +1901,7 @@
       <c r="H9" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I9" s="35"/>
+      <c r="I9" s="34"/>
       <c r="J9" s="1" t="b">
         <v>1</v>
       </c>
@@ -1849,8 +1962,20 @@
       <c r="AC9" s="1">
         <v>-15.935</v>
       </c>
+      <c r="AD9" s="1">
+        <v>-15.329750000000001</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>-15.935</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>-14.708</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>0.50535754669340505</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>79</v>
       </c>
@@ -1876,7 +2001,7 @@
       <c r="H10" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="35"/>
+      <c r="I10" s="34"/>
       <c r="J10" s="1" t="b">
         <v>1</v>
       </c>
@@ -1937,8 +2062,20 @@
       <c r="AC10" s="1">
         <v>-16.562999999999999</v>
       </c>
+      <c r="AD10" s="1">
+        <v>-15.831499999999998</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>-16.562999999999999</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>-15.032999999999999</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>0.64210357419971009</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>90</v>
       </c>
@@ -1964,7 +2101,7 @@
       <c r="H11" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="I11" s="35"/>
+      <c r="I11" s="34"/>
       <c r="J11" s="1" t="b">
         <v>1</v>
       </c>
@@ -2025,8 +2162,20 @@
       <c r="AC11" s="1">
         <v>-14.7</v>
       </c>
+      <c r="AD11" s="1">
+        <v>-14.77875</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>-14.968999999999999</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>-14.7</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>0.12796451331004843</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
@@ -2052,7 +2201,7 @@
       <c r="H12" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="35"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="1" t="b">
         <v>1</v>
       </c>
@@ -2113,8 +2262,20 @@
       <c r="AC12" s="1">
         <v>-13.128</v>
       </c>
+      <c r="AD12" s="1">
+        <v>-12.65475</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>-13.128</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>-11.904999999999999</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>0.53141783623310779</v>
+      </c>
     </row>
-    <row r="13" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>35</v>
       </c>
@@ -2140,7 +2301,7 @@
       <c r="H13" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="35"/>
+      <c r="I13" s="34"/>
       <c r="J13" s="1" t="b">
         <v>1</v>
       </c>
@@ -2201,8 +2362,20 @@
       <c r="AC13" s="1">
         <v>-12.84</v>
       </c>
+      <c r="AD13" s="1">
+        <v>-12.593250000000001</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>-12.84</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>-12.337</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0.2434438675889341</v>
+      </c>
     </row>
-    <row r="14" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>36</v>
       </c>
@@ -2228,7 +2401,7 @@
       <c r="H14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="35"/>
+      <c r="I14" s="34"/>
       <c r="J14" s="1" t="b">
         <v>1</v>
       </c>
@@ -2289,8 +2462,20 @@
       <c r="AC14" s="1">
         <v>-10.554</v>
       </c>
+      <c r="AD14" s="1">
+        <v>-11.764499999999998</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>-13.305999999999999</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>-9.9309999999999992</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>1.7758341701859484</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>57</v>
       </c>
@@ -2316,7 +2501,7 @@
       <c r="H15" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="35"/>
+      <c r="I15" s="34"/>
       <c r="J15" s="1" t="b">
         <v>1</v>
       </c>
@@ -2377,8 +2562,20 @@
       <c r="AC15" s="1">
         <v>-11.733000000000001</v>
       </c>
+      <c r="AD15" s="1">
+        <v>-12.162749999999999</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>-12.726000000000001</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>-11.733000000000001</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>0.41271812414778564</v>
+      </c>
     </row>
-    <row r="16" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>58</v>
       </c>
@@ -2404,7 +2601,7 @@
       <c r="H16" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="35"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="1" t="b">
         <v>1</v>
       </c>
@@ -2465,8 +2662,20 @@
       <c r="AC16" s="1">
         <v>-14.109</v>
       </c>
+      <c r="AD16" s="1">
+        <v>-13.80925</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>-14.18</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>-12.877000000000001</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>0.6231395643567057</v>
+      </c>
     </row>
-    <row r="17" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>59</v>
       </c>
@@ -2492,7 +2701,7 @@
       <c r="H17" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I17" s="35"/>
+      <c r="I17" s="34"/>
       <c r="J17" s="1" t="b">
         <v>1</v>
       </c>
@@ -2553,8 +2762,20 @@
       <c r="AC17" s="1">
         <v>-14.829000000000001</v>
       </c>
+      <c r="AD17" s="1">
+        <v>-14.373250000000001</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>-14.829000000000001</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>-13.715999999999999</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>0.47501394716363277</v>
+      </c>
     </row>
-    <row r="18" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>77</v>
       </c>
@@ -2580,7 +2801,7 @@
       <c r="H18" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I18" s="35"/>
+      <c r="I18" s="34"/>
       <c r="J18" s="1" t="b">
         <v>1</v>
       </c>
@@ -2641,8 +2862,20 @@
       <c r="AC18" s="1">
         <v>-17.884</v>
       </c>
+      <c r="AD18" s="1">
+        <v>-14.25975</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>-17.884</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>-11.307</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>2.88357386761637</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>78</v>
       </c>
@@ -2668,7 +2901,7 @@
       <c r="H19" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I19" s="35"/>
+      <c r="I19" s="34"/>
       <c r="J19" s="1" t="b">
         <v>1</v>
       </c>
@@ -2729,8 +2962,20 @@
       <c r="AC19" s="1">
         <v>-13.388999999999999</v>
       </c>
+      <c r="AD19" s="1">
+        <v>-14.559499999999998</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>-16.065999999999999</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>-13.388999999999999</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>1.1535078384360407</v>
+      </c>
     </row>
-    <row r="20" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>79</v>
       </c>
@@ -2756,7 +3001,7 @@
       <c r="H20" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I20" s="35"/>
+      <c r="I20" s="34"/>
       <c r="J20" s="1" t="b">
         <v>1</v>
       </c>
@@ -2817,8 +3062,20 @@
       <c r="AC20" s="1">
         <v>-16.777000000000001</v>
       </c>
+      <c r="AD20" s="1">
+        <v>-15.976499999999998</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>-16.777000000000001</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>-14.766999999999999</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>0.97522458951776336</v>
+      </c>
     </row>
-    <row r="21" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>90</v>
       </c>
@@ -2844,7 +3101,7 @@
       <c r="H21" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="I21" s="35"/>
+      <c r="I21" s="34"/>
       <c r="J21" s="1" t="b">
         <v>1</v>
       </c>
@@ -2905,8 +3162,20 @@
       <c r="AC21" s="1">
         <v>-14.164</v>
       </c>
+      <c r="AD21" s="1">
+        <v>-14.158000000000001</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>-14.381</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>-13.798</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>0.25594660901565341</v>
+      </c>
     </row>
-    <row r="22" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -2932,7 +3201,7 @@
       <c r="H22" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I22" s="35"/>
+      <c r="I22" s="34"/>
       <c r="J22" s="1" t="b">
         <v>1</v>
       </c>
@@ -2993,8 +3262,20 @@
       <c r="AC22" s="1">
         <v>-12.54</v>
       </c>
+      <c r="AD22" s="1">
+        <v>-12.90225</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>-13.442</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>-12.256</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>0.5943962623256045</v>
+      </c>
     </row>
-    <row r="23" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>35</v>
       </c>
@@ -3020,7 +3301,7 @@
       <c r="H23" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I23" s="35"/>
+      <c r="I23" s="34"/>
       <c r="J23" s="1" t="b">
         <v>1</v>
       </c>
@@ -3081,8 +3362,20 @@
       <c r="AC23" s="1">
         <v>-11.256</v>
       </c>
+      <c r="AD23" s="1">
+        <v>-12.453250000000001</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>-13.246</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>-11.256</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>0.9577708059168466</v>
+      </c>
     </row>
-    <row r="24" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
@@ -3108,7 +3401,7 @@
       <c r="H24" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I24" s="35"/>
+      <c r="I24" s="34"/>
       <c r="J24" s="1" t="b">
         <v>1</v>
       </c>
@@ -3169,8 +3462,20 @@
       <c r="AC24" s="1">
         <v>-13.589</v>
       </c>
+      <c r="AD24" s="1">
+        <v>-13.080499999999999</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>-13.589</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>-12.722</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>0.36477618708833059</v>
+      </c>
     </row>
-    <row r="25" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>57</v>
       </c>
@@ -3196,7 +3501,7 @@
       <c r="H25" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="35"/>
+      <c r="I25" s="34"/>
       <c r="J25" s="1" t="b">
         <v>1</v>
       </c>
@@ -3257,8 +3562,20 @@
       <c r="AC25" s="1">
         <v>-13.375</v>
       </c>
+      <c r="AD25" s="1">
+        <v>-13.836500000000001</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>-14.766</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>-13.03</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>0.7835766288840369</v>
+      </c>
     </row>
-    <row r="26" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>58</v>
       </c>
@@ -3284,7 +3601,7 @@
       <c r="H26" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I26" s="35"/>
+      <c r="I26" s="34"/>
       <c r="J26" s="1" t="b">
         <v>1</v>
       </c>
@@ -3345,8 +3662,20 @@
       <c r="AC26" s="1">
         <v>-14.645</v>
       </c>
+      <c r="AD26" s="1">
+        <v>-15.119</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>-15.305</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>-14.645</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>0.31733053220052532</v>
+      </c>
     </row>
-    <row r="27" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>59</v>
       </c>
@@ -3372,7 +3701,7 @@
       <c r="H27" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="35"/>
+      <c r="I27" s="34"/>
       <c r="J27" s="1" t="b">
         <v>1</v>
       </c>
@@ -3433,8 +3762,20 @@
       <c r="AC27" s="1">
         <v>-12.05</v>
       </c>
+      <c r="AD27" s="1">
+        <v>-12.0105</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>-12.62</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>-10.944000000000001</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>0.74939508938875388</v>
+      </c>
     </row>
-    <row r="28" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>77</v>
       </c>
@@ -3460,7 +3801,7 @@
       <c r="H28" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I28" s="35"/>
+      <c r="I28" s="34"/>
       <c r="J28" s="1" t="b">
         <v>1</v>
       </c>
@@ -3521,8 +3862,20 @@
       <c r="AC28" s="1">
         <v>-15.151999999999999</v>
       </c>
+      <c r="AD28" s="1">
+        <v>-14.55325</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>-15.151999999999999</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>-14.195</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>0.45252357213000638</v>
+      </c>
     </row>
-    <row r="29" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>78</v>
       </c>
@@ -3548,7 +3901,7 @@
       <c r="H29" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I29" s="35"/>
+      <c r="I29" s="34"/>
       <c r="J29" s="1" t="b">
         <v>1</v>
       </c>
@@ -3609,8 +3962,20 @@
       <c r="AC29" s="1">
         <v>-15.964</v>
       </c>
+      <c r="AD29" s="1">
+        <v>-15.702</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>-16.414000000000001</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>-15.106</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>0.59824409733821893</v>
+      </c>
     </row>
-    <row r="30" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>79</v>
       </c>
@@ -3636,7 +4001,7 @@
       <c r="H30" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I30" s="35"/>
+      <c r="I30" s="34"/>
       <c r="J30" s="1" t="b">
         <v>1</v>
       </c>
@@ -3697,8 +4062,20 @@
       <c r="AC30" s="1">
         <v>-17.079000000000001</v>
       </c>
+      <c r="AD30" s="1">
+        <v>-16.61675</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>-17.106999999999999</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>-15.513</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>0.75170046117674949</v>
+      </c>
     </row>
-    <row r="31" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>90</v>
       </c>
@@ -3724,7 +4101,7 @@
       <c r="H31" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="I31" s="35"/>
+      <c r="I31" s="34"/>
       <c r="J31" s="1" t="b">
         <v>1</v>
       </c>
@@ -3785,8 +4162,20 @@
       <c r="AC31" s="1">
         <v>-16.236999999999998</v>
       </c>
+      <c r="AD31" s="1">
+        <v>-14.593250000000001</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>-16.236999999999998</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>-13.583</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>1.1452191566100489</v>
+      </c>
     </row>
-    <row r="32" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>34</v>
       </c>
@@ -3812,7 +4201,7 @@
       <c r="H32" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I32" s="35"/>
+      <c r="I32" s="34"/>
       <c r="J32" s="1" t="b">
         <v>1</v>
       </c>
@@ -3873,8 +4262,20 @@
       <c r="AC32" s="1">
         <v>-12.701000000000001</v>
       </c>
+      <c r="AD32" s="1">
+        <v>-13.542</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>-14.667</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>-12.701000000000001</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>0.87627164737883867</v>
+      </c>
     </row>
-    <row r="33" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>35</v>
       </c>
@@ -3900,7 +4301,7 @@
       <c r="H33" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I33" s="35"/>
+      <c r="I33" s="34"/>
       <c r="J33" s="1" t="b">
         <v>1</v>
       </c>
@@ -3961,8 +4362,20 @@
       <c r="AC33" s="1">
         <v>-15.204000000000001</v>
       </c>
+      <c r="AD33" s="1">
+        <v>-13.77875</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>-15.204000000000001</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>-12.638</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>1.0769368211119326</v>
+      </c>
     </row>
-    <row r="34" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>36</v>
       </c>
@@ -3988,7 +4401,7 @@
       <c r="H34" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I34" s="35"/>
+      <c r="I34" s="34"/>
       <c r="J34" s="1" t="b">
         <v>1</v>
       </c>
@@ -4049,8 +4462,20 @@
       <c r="AC34" s="1">
         <v>-13.738</v>
       </c>
+      <c r="AD34" s="1">
+        <v>-13.013000000000002</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>-13.738</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>-12.063000000000001</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>0.76938113658528262</v>
+      </c>
     </row>
-    <row r="35" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>57</v>
       </c>
@@ -4076,7 +4501,7 @@
       <c r="H35" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I35" s="35"/>
+      <c r="I35" s="34"/>
       <c r="J35" s="1" t="b">
         <v>1</v>
       </c>
@@ -4137,8 +4562,20 @@
       <c r="AC35" s="1">
         <v>-13.66</v>
       </c>
+      <c r="AD35" s="1">
+        <v>-13.052750000000001</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>-13.66</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>-12.343</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>0.56670061172835762</v>
+      </c>
     </row>
-    <row r="36" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>58</v>
       </c>
@@ -4164,7 +4601,7 @@
       <c r="H36" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I36" s="35"/>
+      <c r="I36" s="34"/>
       <c r="J36" s="1" t="b">
         <v>1</v>
       </c>
@@ -4225,8 +4662,20 @@
       <c r="AC36" s="1">
         <v>-12.997</v>
       </c>
+      <c r="AD36" s="1">
+        <v>-12.131</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>-12.997</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>-11.49</v>
+      </c>
+      <c r="AG36" s="1">
+        <v>0.75666593245194169</v>
+      </c>
     </row>
-    <row r="37" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>59</v>
       </c>
@@ -4252,7 +4701,7 @@
       <c r="H37" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I37" s="35"/>
+      <c r="I37" s="34"/>
       <c r="J37" s="1" t="b">
         <v>1</v>
       </c>
@@ -4313,8 +4762,20 @@
       <c r="AC37" s="1">
         <v>-13.786</v>
       </c>
+      <c r="AD37" s="1">
+        <v>-14.0175</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>-14.308</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>-13.702</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>0.31797012438271832</v>
+      </c>
     </row>
-    <row r="38" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>77</v>
       </c>
@@ -4340,7 +4801,7 @@
       <c r="H38" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I38" s="35"/>
+      <c r="I38" s="34"/>
       <c r="J38" s="1" t="b">
         <v>1</v>
       </c>
@@ -4401,8 +4862,20 @@
       <c r="AC38" s="1">
         <v>-15.462999999999999</v>
       </c>
+      <c r="AD38" s="1">
+        <v>-14.480499999999999</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>-15.462999999999999</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>-13.462999999999999</v>
+      </c>
+      <c r="AG38" s="1">
+        <v>0.86237404877467039</v>
+      </c>
     </row>
-    <row r="39" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>78</v>
       </c>
@@ -4428,7 +4901,7 @@
       <c r="H39" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I39" s="35"/>
+      <c r="I39" s="34"/>
       <c r="J39" s="1" t="b">
         <v>1</v>
       </c>
@@ -4489,8 +4962,20 @@
       <c r="AC39" s="1">
         <v>-16.991</v>
       </c>
+      <c r="AD39" s="1">
+        <v>-16.524749999999997</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>-16.991</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>-16.222999999999999</v>
+      </c>
+      <c r="AG39" s="1">
+        <v>0.3468394200973523</v>
+      </c>
     </row>
-    <row r="40" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
         <v>79</v>
       </c>
@@ -4516,7 +5001,7 @@
       <c r="H40" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I40" s="35"/>
+      <c r="I40" s="34"/>
       <c r="J40" s="1" t="b">
         <v>1</v>
       </c>
@@ -4577,8 +5062,20 @@
       <c r="AC40" s="1">
         <v>-13.624000000000001</v>
       </c>
+      <c r="AD40" s="1">
+        <v>-14.263999999999999</v>
+      </c>
+      <c r="AE40" s="1">
+        <v>-14.773</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>-13.624000000000001</v>
+      </c>
+      <c r="AG40" s="1">
+        <v>0.48538163679043289</v>
+      </c>
     </row>
-    <row r="41" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>90</v>
       </c>
@@ -4604,7 +5101,7 @@
       <c r="H41" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="I41" s="35"/>
+      <c r="I41" s="34"/>
       <c r="J41" s="1" t="b">
         <v>1</v>
       </c>
@@ -4665,8 +5162,21 @@
       <c r="AC41" s="1">
         <v>-15.022</v>
       </c>
+      <c r="AD41" s="1">
+        <v>-14.215999999999999</v>
+      </c>
+      <c r="AE41" s="1">
+        <v>-15.022</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>-13.076000000000001</v>
+      </c>
+      <c r="AG41" s="1">
+        <v>0.85580644229094049</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AG41" xr:uid="{B9A0155A-1E79-46A6-BA76-B5BBE5928165}"/>
   <mergeCells count="1">
     <mergeCell ref="I2:I41"/>
   </mergeCells>
@@ -5334,7 +5844,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
